--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Île-de-France/Pandémie_de_Covid-19_en_Île-de-France.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Île-de-France/Pandémie_de_Covid-19_en_Île-de-France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_%C3%8Ele-de-France</t>
+          <t>Pandémie_de_Covid-19_en_Île-de-France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la situation en ce qui concerne la pandémie de maladie à coronavirus 2019 (Covid-19) en Île-de-France.
 L'Île-de-France est l'une des principales régions de France touchée par la pandémie au printemps 2020.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_%C3%8Ele-de-France</t>
+          <t>Pandémie_de_Covid-19_en_Île-de-France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nouveaux cas quotidiens
-Hospitalisations
-Décès
-Lecture : dans la semaine du lundi 30 mars au dimanche 5 avril 2020, dans les hôpitaux, 1 300 personnes supplémentaires sont décédées d'une cause attribuée à la Covid-19.
-Réanimations
-Statistiques par départements</t>
+          <t>Nouveaux cas quotidiens</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_%C3%8Ele-de-France</t>
+          <t>Pandémie_de_Covid-19_en_Île-de-France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Foyer de contagion de l'Assemblée nationale</t>
+          <t>Statistiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un foyer de contagion s'est manifesté au sein de l'Assemblée nationale, selon une analyse du quotidien Le Monde[1], avec 26 personnes la fréquentant déclarées contaminées le 16 mars, dont 18 députés[1], soit 3,5 % d'entre eux. Le premier d'entre eux est Jean-Luc Reitzer, député Les Républicains de la 3e circonscription du Haut-Rhin[2],[1], l’un des premiers foyers français de l’épidémie. Présent à l'Assemblée jusqu'au 25 février[3], il est hospitalisé en réanimation le 5 mars[1]. Il avait aussi récemment pris part à un voyage parlementaire à l’étranger[4]. Dans le même temps, un serveur de la buvette est testé positif, de même qu'au moins six membres de la commission des affaires culturelles, qui accueille nuit et jour 40 à 60 députés, leurs collaborateurs et des journalistes[1].
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lecture : dans la semaine du lundi 30 mars au dimanche 5 avril 2020, dans les hôpitaux, 1 300 personnes supplémentaires sont décédées d'une cause attribuée à la Covid-19.
 </t>
         </is>
       </c>
@@ -561,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_%C3%8Ele-de-France</t>
+          <t>Pandémie_de_Covid-19_en_Île-de-France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,15 +596,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Foyer de contagion de l'Assemblée nationale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un foyer de contagion s'est manifesté au sein de l'Assemblée nationale, selon une analyse du quotidien Le Monde, avec 26 personnes la fréquentant déclarées contaminées le 16 mars, dont 18 députés, soit 3,5 % d'entre eux. Le premier d'entre eux est Jean-Luc Reitzer, député Les Républicains de la 3e circonscription du Haut-Rhin l’un des premiers foyers français de l’épidémie. Présent à l'Assemblée jusqu'au 25 février, il est hospitalisé en réanimation le 5 mars. Il avait aussi récemment pris part à un voyage parlementaire à l’étranger. Dans le même temps, un serveur de la buvette est testé positif, de même qu'au moins six membres de la commission des affaires culturelles, qui accueille nuit et jour 40 à 60 députés, leurs collaborateurs et des journalistes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_en_Île-de-France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_en_%C3%8Ele-de-France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Mesures locales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Paris
-Le Musée du Louvre ferme ses portes du 1er mars au 4 mars[5]. Une grande partie des salariés du musée exercent en effet leur droit de retrait[6]. Le 13 mars, le musée ferme à nouveau jusqu'à nouvel ordre. Il en est de même pour la tour Eiffel et le musée d'Orsay.
-Yvelines
-Le 13 mars, le château de Versailles ferme ses portes jusqu'à nouvel ordre, seul le parc est accessible.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Musée du Louvre ferme ses portes du 1er mars au 4 mars. Une grande partie des salariés du musée exercent en effet leur droit de retrait. Le 13 mars, le musée ferme à nouveau jusqu'à nouvel ordre. Il en est de même pour la tour Eiffel et le musée d'Orsay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_en_Île-de-France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_en_%C3%8Ele-de-France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mesures locales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yvelines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le 13 mars, le château de Versailles ferme ses portes jusqu'à nouvel ordre, seul le parc est accessible.
 Le 13 mars, le préfet arrête que « L’accès du public aux parcs, jardins, promenades, massifs forestiers ou berges de la Seine et de l’Oise, qu’ils soient publics ou privés mais ouverts à la circulation publique, situés dans le département des Yvelines, est interdit jusqu’au 31 mars 2020 dans le cadre des déplacements brefs, à proximité du domicile, liés à l’activité physique individuelle des personnes et aux besoins des animaux de compagnie ».</t>
         </is>
       </c>
